--- a/mippe_base_32u4_v2/BOM_REV_A.xlsx
+++ b/mippe_base_32u4_v2/BOM_REV_A.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -71,25 +71,46 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">ATMEGA32U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN-44_EP_7.0x7.0x0.5P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C112161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1, C2, C3, C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C1525</t>
+  </si>
+  <si>
     <t xml:space="preserve">1uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C5, C10, C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C15849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1, C2, C6, C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C14663</t>
+    <t xml:space="preserve">C5, C6, C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C52923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8, C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1549</t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
@@ -98,51 +119,46 @@
     <t xml:space="preserve">R1, R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0603_R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C25804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3, R7, R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C23138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C21190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4, R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATMEGA32U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFN-44_EP_7x7x0.5P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C112161</t>
+    <t xml:space="preserve">C25744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3, R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5, R6, R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1, D2, D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED_0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2286</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -210,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -261,10 +277,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
-      <bottom style="thin"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -286,13 +302,6 @@
       <right style="hair"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -321,7 +330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -334,6 +343,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,6 +359,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -358,15 +375,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,15 +391,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -407,45 +420,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="40.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="25.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="25.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="2" width="8.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="3" width="8.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="4" width="8.89"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AMJ1" s="8"/>
+      <c r="AMJ1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -453,132 +466,139 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
-        <v>330</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>21</v>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
